--- a/scalc/config/cfg_crlc/wrbr_para_1580.xlsx
+++ b/scalc/config/cfg_crlc/wrbr_para_1580.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PycharmProjects\板形计算\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\digestion\tiny_ssu_calc\scalc\config\cfg_crlc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="20670" windowHeight="10065"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="20676" windowHeight="10068"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,19 +26,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
+    <t>length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>width</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>wr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>br</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>length</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>width</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -373,22 +373,22 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>2</v>
       </c>
       <c r="B2">
         <v>1880</v>
@@ -397,9 +397,9 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>1880</v>

--- a/scalc/config/cfg_crlc/wrbr_para_1580.xlsx
+++ b/scalc/config/cfg_crlc/wrbr_para_1580.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="20676" windowHeight="10068"/>
+    <workbookView xWindow="2748" yWindow="0" windowWidth="20676" windowHeight="10068"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,19 +26,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>length</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>width</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>wr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>br</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>len</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -373,22 +373,22 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>1880</v>
@@ -399,7 +399,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>1880</v>
